--- a/Jogos_do_Dia/2024-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -669,134 +669,134 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.8</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AB2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AD2" t="n">
         <v>3.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>8.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="AL2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM2" t="n">
         <v>1.92</v>
       </c>
-      <c r="AM2" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AN2" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,128 +808,128 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L3" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="N3" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>3.25</v>
+        <v>2.79</v>
       </c>
       <c r="S3" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.8</v>
+        <v>0.33</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AD3" t="n">
         <v>3.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AF3" t="n">
         <v>8.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AL3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM3" t="n">
         <v>1.88</v>
       </c>
-      <c r="AM3" t="n">
-        <v>1.92</v>
-      </c>
       <c r="AN3" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -1065,16 +1065,16 @@
         <v>1.34</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1090,85 +1090,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J5" t="n">
-        <v>2.26</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.9</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6</v>
+        <v>2.11</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.23</v>
+        <v>2.14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.43</v>
+        <v>3.7</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1229,85 +1229,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>2.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>2.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.2</v>
       </c>
-      <c r="R6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AC6" t="n">
-        <v>2.14</v>
+        <v>1.23</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.7</v>
+        <v>2.43</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>5.17</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
         <v>1.92</v>
       </c>
       <c r="I8" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.52</v>
@@ -1546,31 +1546,31 @@
         <v>6.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Z8" t="n">
         <v>0.4</v>
@@ -1588,13 +1588,13 @@
         <v>2.33</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AH8" t="n">
         <v>1.31</v>
@@ -1603,16 +1603,16 @@
         <v>3.04</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AN8" t="n">
         <v>2.53</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1803,13 +1803,13 @@
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.25</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
         <v>1.85</v>
@@ -1942,13 +1942,13 @@
         <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5.65</v>
       </c>
       <c r="M11" t="n">
         <v>1.4</v>
@@ -1969,10 +1969,10 @@
         <v>3.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2081,13 +2081,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2220,13 +2220,13 @@
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.89</v>
+        <v>3.79</v>
       </c>
       <c r="L14" t="n">
-        <v>2.74</v>
+        <v>3.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.02</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="T14" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="V14" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X14" t="n">
         <v>1.22</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.36</v>
+        <v>2.67</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.88</v>
+        <v>3.17</v>
       </c>
       <c r="K15" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="L15" t="n">
-        <v>4.13</v>
+        <v>2.19</v>
       </c>
       <c r="M15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.38</v>
+        <v>1.38</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.47</v>
+        <v>2.96</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2619,94 +2619,94 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.17</v>
+        <v>2.36</v>
       </c>
       <c r="K16" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="L16" t="n">
-        <v>2.19</v>
+        <v>2.74</v>
       </c>
       <c r="M16" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AB16" t="n">
         <v>1.52</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="17">
@@ -2758,124 +2758,124 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="K17" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
       <c r="L17" t="n">
-        <v>3.29</v>
+        <v>4.13</v>
       </c>
       <c r="M17" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
         <v>1.22</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AA17" t="n">
         <v>0.38</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.89</v>
+        <v>2.47</v>
       </c>
       <c r="AE17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL17" t="n">
         <v>1.87</v>
       </c>
-      <c r="AF17" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AM17" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.67</v>
+        <v>3.14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.67</v>
@@ -3020,7 +3020,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3036,31 +3036,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>2.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3069,97 +3069,97 @@
         <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AH19" t="n">
         <v>1.38</v>
       </c>
-      <c r="R19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3175,31 +3175,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>2.05</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="M20" t="n">
         <v>1.5</v>
@@ -3208,91 +3208,91 @@
         <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X20" t="n">
         <v>1.28</v>
       </c>
-      <c r="X20" t="n">
-        <v>1.37</v>
-      </c>
       <c r="Y20" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AP20" t="n">
-        <v>4.15</v>
+        <v>3.64</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="21">
@@ -3332,13 +3332,13 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="L21" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.33</v>
@@ -3359,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="T21" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
@@ -3471,13 +3471,13 @@
         <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M22" t="n">
         <v>1.33</v>
@@ -3498,10 +3498,10 @@
         <v>4.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
         <v>1.62</v>
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.68</v>

--- a/Jogos_do_Dia/2024-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -763,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.53</v>
@@ -787,10 +787,10 @@
         <v>1.56</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -827,16 +827,16 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.46</v>
@@ -857,16 +857,16 @@
         <v>2.79</v>
       </c>
       <c r="S3" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.46</v>
@@ -914,7 +914,7 @@
         <v>2.44</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="AM3" t="n">
         <v>1.88</v>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.59</v>
@@ -1002,10 +1002,10 @@
         <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.26</v>
@@ -1108,13 +1108,13 @@
         <v>1.73</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="n">
         <v>1.33</v>
@@ -1135,10 +1135,10 @@
         <v>4.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1.25</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.92</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="M8" t="n">
         <v>1.52</v>
@@ -1540,37 +1540,37 @@
         <v>2.43</v>
       </c>
       <c r="O8" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>6.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Z8" t="n">
         <v>0.4</v>
@@ -1588,13 +1588,13 @@
         <v>2.33</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AH8" t="n">
         <v>1.31</v>
@@ -1603,22 +1603,22 @@
         <v>3.04</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AP8" t="n">
         <v>3.56</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1691,10 +1691,10 @@
         <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1803,13 +1803,13 @@
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,10 +1830,10 @@
         <v>3.25</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
         <v>1.85</v>
@@ -1942,13 +1942,13 @@
         <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>5.65</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.4</v>
@@ -1969,10 +1969,10 @@
         <v>3.25</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2081,10 +2081,10 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2108,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2220,13 +2220,13 @@
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2513,16 +2513,16 @@
         <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.7</v>
@@ -2537,13 +2537,13 @@
         <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Z15" t="n">
         <v>2</v>
@@ -2709,10 +2709,10 @@
         <v>2.33</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ16" t="n">
         <v>1.28</v>
@@ -2915,13 +2915,13 @@
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.67</v>
@@ -2936,16 +2936,16 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S18" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
@@ -3020,7 +3020,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3036,31 +3036,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>2.05</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3069,97 +3069,97 @@
         <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X19" t="n">
         <v>1.28</v>
       </c>
-      <c r="X19" t="n">
-        <v>1.37</v>
-      </c>
       <c r="Y19" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.15</v>
+        <v>3.64</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3175,31 +3175,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>2.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.5</v>
@@ -3208,97 +3208,97 @@
         <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AH20" t="n">
         <v>1.38</v>
       </c>
-      <c r="R20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3314,31 +3314,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="M21" t="n">
         <v>1.33</v>
@@ -3347,7 +3347,7 @@
         <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P21" t="n">
         <v>14</v>
@@ -3356,88 +3356,88 @@
         <v>1.22</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.42</v>
+        <v>1.58</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3453,31 +3453,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>2.85</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>1.33</v>
@@ -3486,7 +3486,7 @@
         <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P22" t="n">
         <v>14</v>
@@ -3495,82 +3495,82 @@
         <v>1.22</v>
       </c>
       <c r="R22" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="X22" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.83</v>
+        <v>1.23</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AC22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1.29</v>
       </c>
-      <c r="AD22" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AI22" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AK22" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AM22" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="23">
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
